--- a/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Govt. High School HudukulaBangarpet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>
@@ -509,6 +519,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S Harati</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -536,6 +551,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>A H S RayalamanadinneMulbagal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -563,6 +583,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G J C Gownipalli (V)Sreenivasapura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -590,6 +615,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>B H S High School AbbenahalliMalur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -617,6 +647,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeTayalurMulbagal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -644,6 +679,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High School KyasamballiBangarpet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -671,6 +711,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt Jr College M N HalliMulbagal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -698,6 +743,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S V V High School NangaliMulbagal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -725,6 +775,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Citizen High School ThayalurMulbagal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -754,6 +809,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Field Marshal K M Cariyappa High School HanchalagateBangarpet</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -781,6 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. High School Alangur Cross Mulbagal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -807,7 +872,8 @@
           <t>GAYATHRI S</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>G. F. Kolar</t>
         </is>
@@ -836,6 +902,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G J C Tekal Malur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -865,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Vivekananda Rural High SchoolN G HulkurBangarpet</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -894,6 +970,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. Junior College Vemgal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -921,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S DevarayasamudraMulbagal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -948,6 +1034,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S RonurSrinivasapur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -975,6 +1066,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G J C DoddanayakanahalliMalur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1002,6 +1098,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G J C D N DoddiMalur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1029,6 +1130,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G J C (H S) MasthiMalur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1055,7 +1161,8 @@
           <t>LEELA N</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>G. F. Kolar</t>
         </is>
@@ -1084,6 +1191,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Mysore mine High SchoolK G F BlockBangarpet</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1111,6 +1223,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Nethaji High School MustoorMulbagal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1138,6 +1255,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S RoyalpadSreenivasapura</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1167,6 +1289,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Sabaramathi High SchoolSugatur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1196,6 +1323,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA) Bangarpet</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1223,6 +1355,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S KesaragereMalur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1250,6 +1387,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. High School S MadamangalaBangarpet</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1277,6 +1419,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G J C Boys Malur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1304,6 +1451,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Anjandri High School Emmenatha Mulbagal</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1332,6 +1484,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t xml:space="preserve">Robertsonpet K G </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1359,6 +1516,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S ChikkathirupathiMalur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1386,6 +1548,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S NG HulkurBangarpet</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1415,6 +1582,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>J H S Kembodi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1442,6 +1614,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. Jr. College for BoysSrinivasapura</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1469,6 +1646,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>M E M High School</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1496,6 +1678,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G B J C Bangarapet</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1523,6 +1710,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S Kyalanure</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1550,6 +1742,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H P S Shettikothanur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1577,6 +1774,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>J V T H S PathimitteMulbagal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1604,6 +1806,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S BudikoteBangarpet</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1631,6 +1838,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Govt. High School Thippadoddi Mulbagal</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1658,6 +1870,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Mathru Bhoomi High School Kodikannur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1687,6 +1904,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>S K R S High School MitturMulbagal</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1714,6 +1936,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S VirupakshiMulbagal</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1741,6 +1968,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S Annihalli</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1768,6 +2000,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G J C KamasamudraK G F RangeBangarpet</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1797,6 +2034,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S Gonamakanahalli</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>K. G. F. Kolar</t>
         </is>
       </c>
@@ -1824,6 +2066,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. High School Kamadhenuhalli</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1850,6 +2097,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>G H SGullahalliBangarpet</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,7 +872,6 @@
           <t>GAYATHRI S</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>G. F. Kolar</t>
@@ -1161,7 +1160,6 @@
           <t>LEELA N</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>G. F. Kolar</t>

--- a/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-18)_51_4.xlsx
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>G. F. Kolar</t>
+          <t>Kolar</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>G. F. Kolar</t>
+          <t>Kolar</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>K. G. F. Kolar</t>
+          <t>Kolar</t>
         </is>
       </c>
     </row>
